--- a/INPUT_gym_test.xlsx
+++ b/INPUT_gym_test.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uqlhear2/Documents/PYTHON/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uqlhear2/ownCloud/4_Github/coding_practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="20280" activeTab="4"/>
+    <workbookView xWindow="6400" yWindow="460" windowWidth="19200" windowHeight="14700" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Squat" sheetId="1" r:id="rId1"/>
@@ -1032,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1128,7 +1128,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1139,7 +1139,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1150,7 +1150,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1161,7 +1161,7 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1172,7 +1172,7 @@
         <v>4</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1183,7 +1183,7 @@
         <v>5</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1194,7 +1194,7 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1205,7 +1205,7 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1216,7 +1216,7 @@
         <v>5</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1262,7 +1262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
